--- a/ML_Offline3/ALS/Results_1305003.xlsx
+++ b/ML_Offline3/ALS/Results_1305003.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20703"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Course BUET\CSE471_Jan'18\CSE_472_Assignment_3_Recommender_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFBBA718-B29C-4D6D-B86D-AE079B601B13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="10_ncr:8100000_{FFBBA718-B29C-4D6D-B86D-AE079B601B13}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{47DC3616-6FE8-4D38-9011-FD91DA29BA42}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2B0C9EB4-8911-4EF6-82FF-D91E08F8A887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t>No of Latent Factor</t>
+    <t>Training RMSE</t>
   </si>
   <si>
     <t>Regularization Parameter</t>
   </si>
   <si>
-    <t>Training RMSE</t>
+    <t>No of Latent Factor</t>
   </si>
   <si>
     <t>Validation RMSE</t>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="সাধারণ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,31 +435,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0B9AC5-2F9A-408B-B177-39C14F460105}">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{DBC058CB-A56B-54E3-8BC7-4C948B65D9A9}">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0.01</v>
@@ -474,47 +474,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>3.0344000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.0344000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.0344000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.0343</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>3.0348999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.0348999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.0345</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.0343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>3.0394999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.0381999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.0348000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.0343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>0.01</v>
@@ -529,47 +553,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.9601000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>2.9599000000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.9599000000000002</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.9599000000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.9599000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>0.01</v>
@@ -584,32 +632,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="1">
         <v>40</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ML_Offline3/ALS/Results_1305003.xlsx
+++ b/ML_Offline3/ALS/Results_1305003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Course BUET\CSE471_Jan'18\CSE_472_Assignment_3_Recommender_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="10_ncr:8100000_{FFBBA718-B29C-4D6D-B86D-AE079B601B13}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{47DC3616-6FE8-4D38-9011-FD91DA29BA42}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="10_ncr:8100000_{FFBBA718-B29C-4D6D-B86D-AE079B601B13}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{F30FF275-53E6-4126-9B8F-757D4DD57F9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2B0C9EB4-8911-4EF6-82FF-D91E08F8A887}"/>
   </bookViews>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -119,6 +119,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="সাধারণ" xfId="0" builtinId="0"/>
@@ -435,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0B9AC5-2F9A-408B-B177-39C14F460105}">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{DBC058CB-A56B-54E3-8BC7-4C948B65D9A9}">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{DBC058CB-A56B-54E3-8BC7-4C948B65D9A9}">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -479,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>3.0344000000000002</v>
+        <v>3.7362000000000002</v>
       </c>
       <c r="D5" s="4">
-        <v>3.0344000000000002</v>
+        <v>3.9727000000000001</v>
       </c>
       <c r="E5" s="4">
-        <v>3.0344000000000002</v>
+        <v>3.6125882765697899</v>
       </c>
       <c r="F5" s="4">
-        <v>3.0343</v>
+        <v>2.8656999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -496,16 +497,16 @@
         <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>3.0348999999999999</v>
+        <v>9.7098999999999993</v>
       </c>
       <c r="D6" s="4">
-        <v>3.0348999999999999</v>
+        <v>8.7521000000000004</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0345</v>
+        <v>5.7435999999999998</v>
       </c>
       <c r="F6" s="4">
-        <v>3.0343</v>
+        <v>2.669</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -513,16 +514,16 @@
         <v>40</v>
       </c>
       <c r="C7" s="4">
-        <v>3.0394999999999999</v>
+        <v>27.6129</v>
       </c>
       <c r="D7" s="4">
-        <v>3.0381999999999998</v>
+        <v>23.088999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>3.0348000000000002</v>
+        <v>8.0867000000000004</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0343</v>
+        <v>2.5977999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -558,16 +559,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>2.9601000000000002</v>
+        <v>2.7580867267323499</v>
       </c>
       <c r="D12" s="4">
-        <v>2.9601000000000002</v>
+        <v>2.7245297198935998</v>
       </c>
       <c r="E12" s="4">
-        <v>2.9601000000000002</v>
+        <v>2.8170806007557299</v>
       </c>
       <c r="F12" s="4">
-        <v>2.9601000000000002</v>
+        <v>2.7148187709613101</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -575,16 +576,16 @@
         <v>20</v>
       </c>
       <c r="C13" s="4">
-        <v>2.96</v>
+        <v>2.55016</v>
       </c>
       <c r="D13" s="4">
-        <v>2.9601000000000002</v>
+        <v>2.6207207634949401</v>
       </c>
       <c r="E13" s="4">
-        <v>2.96</v>
+        <v>2.4481518697826301</v>
       </c>
       <c r="F13" s="4">
-        <v>2.96</v>
+        <v>2.4806417943242001</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -592,16 +593,16 @@
         <v>40</v>
       </c>
       <c r="C14" s="4">
-        <v>2.9599000000000002</v>
+        <v>2.1398590372275899</v>
       </c>
       <c r="D14" s="4">
-        <v>2.9599000000000002</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2.9599000000000002</v>
+        <v>1.98245689810242</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.9585765614249799</v>
       </c>
       <c r="F14" s="4">
-        <v>2.9599000000000002</v>
+        <v>2.2333437272225001</v>
       </c>
     </row>
     <row r="17" spans="2:6">
